--- a/Code/Results/Cases/Case_0_241/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_241/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.308123399506217</v>
+        <v>4.067937038739814</v>
       </c>
       <c r="D2">
-        <v>4.395901607470623</v>
+        <v>7.775327537238653</v>
       </c>
       <c r="E2">
-        <v>8.715424479136939</v>
+        <v>12.79089778093609</v>
       </c>
       <c r="F2">
-        <v>51.4934605274126</v>
+        <v>43.55292226603628</v>
       </c>
       <c r="G2">
-        <v>77.90536560178045</v>
+        <v>55.81828364157815</v>
       </c>
       <c r="H2">
-        <v>19.48376110365576</v>
+        <v>19.41613829829462</v>
       </c>
       <c r="I2">
-        <v>35.87992063714941</v>
+        <v>30.49359561336957</v>
       </c>
       <c r="J2">
-        <v>6.806331376039703</v>
+        <v>10.09421402311757</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -456,28 +456,28 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>2.290525136809157</v>
+        <v>4.079197275270284</v>
       </c>
       <c r="D3">
-        <v>4.40256917151504</v>
+        <v>7.783950329519477</v>
       </c>
       <c r="E3">
-        <v>8.452723501292686</v>
+        <v>12.7962115933908</v>
       </c>
       <c r="F3">
-        <v>48.03355434718435</v>
+        <v>42.80830285766458</v>
       </c>
       <c r="G3">
-        <v>72.23335680188406</v>
+        <v>54.23993323042035</v>
       </c>
       <c r="H3">
-        <v>18.30808815663112</v>
+        <v>19.23223933023537</v>
       </c>
       <c r="I3">
-        <v>33.31565032009382</v>
+        <v>29.98868480780469</v>
       </c>
       <c r="J3">
-        <v>6.6082314520865</v>
+        <v>10.09965827486539</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -491,28 +491,28 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>2.282556462437934</v>
+        <v>4.086823181783126</v>
       </c>
       <c r="D4">
-        <v>4.40763774735877</v>
+        <v>7.789593014885036</v>
       </c>
       <c r="E4">
-        <v>8.297782208123294</v>
+        <v>12.80222834265474</v>
       </c>
       <c r="F4">
-        <v>45.86274823672516</v>
+        <v>42.36012949402359</v>
       </c>
       <c r="G4">
-        <v>68.69293775649219</v>
+        <v>53.26890903784906</v>
       </c>
       <c r="H4">
-        <v>17.57795894462996</v>
+        <v>19.12460663806862</v>
       </c>
       <c r="I4">
-        <v>31.81888175881562</v>
+        <v>29.68522153962714</v>
       </c>
       <c r="J4">
-        <v>6.491872185819634</v>
+        <v>10.10513802733398</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,28 +526,28 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>2.279957180085414</v>
+        <v>4.090109392622248</v>
       </c>
       <c r="D5">
-        <v>4.409930783182184</v>
+        <v>7.791980221879072</v>
       </c>
       <c r="E5">
-        <v>8.236187276299752</v>
+        <v>12.80537095394674</v>
       </c>
       <c r="F5">
-        <v>44.96624417942638</v>
+        <v>42.18000477163207</v>
       </c>
       <c r="G5">
-        <v>67.2241521254812</v>
+        <v>52.87339574061149</v>
       </c>
       <c r="H5">
-        <v>17.27835207241014</v>
+        <v>19.08211190537824</v>
       </c>
       <c r="I5">
-        <v>31.20094266631943</v>
+        <v>29.56336527187999</v>
       </c>
       <c r="J5">
-        <v>6.445728477650913</v>
+        <v>10.10790694008688</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -561,28 +561,28 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>2.279562946284973</v>
+        <v>4.090665838468226</v>
       </c>
       <c r="D6">
-        <v>4.410324827008528</v>
+        <v>7.792381922476789</v>
       </c>
       <c r="E6">
-        <v>8.226051460945586</v>
+        <v>12.80593444346414</v>
       </c>
       <c r="F6">
-        <v>44.81666224329556</v>
+        <v>42.15025368690453</v>
       </c>
       <c r="G6">
-        <v>66.97867291171518</v>
+        <v>52.80775238547449</v>
       </c>
       <c r="H6">
-        <v>17.22847957561442</v>
+        <v>19.07513927552349</v>
       </c>
       <c r="I6">
-        <v>31.0978516092553</v>
+        <v>29.54324488440706</v>
       </c>
       <c r="J6">
-        <v>6.438141926353754</v>
+        <v>10.10839903397143</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -596,28 +596,28 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>2.282518864482182</v>
+        <v>4.086866778263603</v>
       </c>
       <c r="D7">
-        <v>4.407667771697376</v>
+        <v>7.789624853964197</v>
       </c>
       <c r="E7">
-        <v>8.296945323756013</v>
+        <v>12.80226793078253</v>
       </c>
       <c r="F7">
-        <v>45.85070584521972</v>
+        <v>42.35768979431256</v>
       </c>
       <c r="G7">
-        <v>68.67323539928275</v>
+        <v>53.26357334810401</v>
       </c>
       <c r="H7">
-        <v>17.57392665124522</v>
+        <v>19.12402795819506</v>
       </c>
       <c r="I7">
-        <v>31.8105804097262</v>
+        <v>29.68357061698928</v>
       </c>
       <c r="J7">
-        <v>6.491244780833427</v>
+        <v>10.10517320223398</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -631,28 +631,28 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>2.301424859085736</v>
+        <v>4.071671495189776</v>
       </c>
       <c r="D8">
-        <v>4.397986722118271</v>
+        <v>7.778228512134253</v>
       </c>
       <c r="E8">
-        <v>8.623488339827205</v>
+        <v>12.79215737886159</v>
       </c>
       <c r="F8">
-        <v>50.30989328129114</v>
+        <v>43.29444933871008</v>
       </c>
       <c r="G8">
-        <v>75.9685428695889</v>
+        <v>55.27485639963601</v>
       </c>
       <c r="H8">
-        <v>19.08007083848176</v>
+        <v>19.35165752383276</v>
       </c>
       <c r="I8">
-        <v>34.97396813012475</v>
+        <v>30.31823872306765</v>
       </c>
       <c r="J8">
-        <v>6.736896164829226</v>
+        <v>10.09564683369204</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -666,28 +666,28 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>2.364456960077084</v>
+        <v>4.047544973677834</v>
       </c>
       <c r="D9">
-        <v>4.38773000261732</v>
+        <v>7.758634923494748</v>
       </c>
       <c r="E9">
-        <v>9.317755030256798</v>
+        <v>12.79425332100533</v>
       </c>
       <c r="F9">
-        <v>59.02579234656362</v>
+        <v>45.1923579334902</v>
       </c>
       <c r="G9">
-        <v>89.61132843279343</v>
+        <v>59.17608532848482</v>
       </c>
       <c r="H9">
-        <v>22.35212274804474</v>
+        <v>19.83812848513057</v>
       </c>
       <c r="I9">
-        <v>41.34147474667945</v>
+        <v>31.60769287801838</v>
       </c>
       <c r="J9">
-        <v>7.263675654286021</v>
+        <v>10.09398137337356</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -701,28 +701,28 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>2.432445893682792</v>
+        <v>4.033306825936791</v>
       </c>
       <c r="D10">
-        <v>4.387340490539982</v>
+        <v>7.745907050268944</v>
       </c>
       <c r="E10">
-        <v>9.867857641980772</v>
+        <v>12.80924056609112</v>
       </c>
       <c r="F10">
-        <v>65.31034501833989</v>
+        <v>46.60957261525871</v>
       </c>
       <c r="G10">
-        <v>99.28487081992668</v>
+        <v>61.981652212655</v>
       </c>
       <c r="H10">
-        <v>24.7475230046248</v>
+        <v>20.21737083869697</v>
       </c>
       <c r="I10">
-        <v>45.84056723312401</v>
+        <v>32.57281943039924</v>
       </c>
       <c r="J10">
-        <v>7.68449951831999</v>
+        <v>10.1032033125207</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -736,28 +736,28 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>2.46981226389426</v>
+        <v>4.027593510409064</v>
       </c>
       <c r="D11">
-        <v>4.389305614885037</v>
+        <v>7.740476480735375</v>
       </c>
       <c r="E11">
-        <v>10.12933804621772</v>
+        <v>12.81899056674694</v>
       </c>
       <c r="F11">
-        <v>68.15103792113601</v>
+        <v>47.25628024516151</v>
       </c>
       <c r="G11">
-        <v>103.6518622846198</v>
+        <v>63.23832606388071</v>
       </c>
       <c r="H11">
-        <v>25.82992299465</v>
+        <v>20.39404390176299</v>
       </c>
       <c r="I11">
-        <v>47.86828483659387</v>
+        <v>33.01373424058502</v>
       </c>
       <c r="J11">
-        <v>7.885455473047336</v>
+        <v>10.1096781573947</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -771,28 +771,28 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>2.485079504981581</v>
+        <v>4.025540408110646</v>
       </c>
       <c r="D12">
-        <v>4.39042782036523</v>
+        <v>7.738471567625717</v>
       </c>
       <c r="E12">
-        <v>10.23027982611148</v>
+        <v>12.82310469558071</v>
       </c>
       <c r="F12">
-        <v>69.22722115515396</v>
+        <v>47.50122072253101</v>
       </c>
       <c r="G12">
-        <v>105.3055581717591</v>
+        <v>63.71089757901819</v>
       </c>
       <c r="H12">
-        <v>26.23994949857824</v>
+        <v>20.4614908354891</v>
       </c>
       <c r="I12">
-        <v>48.63566078187801</v>
+        <v>33.18080441632898</v>
       </c>
       <c r="J12">
-        <v>7.963184209542498</v>
+        <v>10.11245835723054</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -806,28 +806,28 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>2.48173811770087</v>
+        <v>4.025977660591156</v>
       </c>
       <c r="D13">
-        <v>4.39016795686436</v>
+        <v>7.738901072355536</v>
       </c>
       <c r="E13">
-        <v>10.20844852775576</v>
+        <v>12.82219987252577</v>
       </c>
       <c r="F13">
-        <v>68.99536559111357</v>
+        <v>47.4484701162485</v>
       </c>
       <c r="G13">
-        <v>104.9493124865465</v>
+        <v>63.60927505002352</v>
       </c>
       <c r="H13">
-        <v>26.15161371359387</v>
+        <v>20.44694155215289</v>
       </c>
       <c r="I13">
-        <v>48.47037117636552</v>
+        <v>33.14482073616267</v>
       </c>
       <c r="J13">
-        <v>7.946366266498036</v>
+        <v>10.11184498395784</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -841,28 +841,28 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>2.471044631128366</v>
+        <v>4.027422384339081</v>
       </c>
       <c r="D14">
-        <v>4.389389880351109</v>
+        <v>7.740310503551593</v>
       </c>
       <c r="E14">
-        <v>10.13760186180868</v>
+        <v>12.81932057978253</v>
       </c>
       <c r="F14">
-        <v>68.23954568335985</v>
+        <v>47.27643207546961</v>
       </c>
       <c r="G14">
-        <v>103.7878799217248</v>
+        <v>63.27727364430339</v>
       </c>
       <c r="H14">
-        <v>25.86364513349476</v>
+        <v>20.39958218944831</v>
       </c>
       <c r="I14">
-        <v>47.93141173517888</v>
+        <v>33.02747801478515</v>
       </c>
       <c r="J14">
-        <v>7.891815759274963</v>
+        <v>10.10990030410755</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -876,28 +876,28 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>2.464646645010751</v>
+        <v>4.028321715129676</v>
       </c>
       <c r="D15">
-        <v>4.388964980817395</v>
+        <v>7.741180526475396</v>
       </c>
       <c r="E15">
-        <v>10.09446786429536</v>
+        <v>12.81761189429881</v>
       </c>
       <c r="F15">
-        <v>67.77675312803579</v>
+        <v>47.17105279049238</v>
       </c>
       <c r="G15">
-        <v>103.0766375201302</v>
+        <v>63.07346929284409</v>
       </c>
       <c r="H15">
-        <v>25.68731625842438</v>
+        <v>20.37064257097947</v>
       </c>
       <c r="I15">
-        <v>47.60129882798042</v>
+        <v>32.95561114459593</v>
       </c>
       <c r="J15">
-        <v>7.858623670535366</v>
+        <v>10.10875189896313</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -911,28 +911,28 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>2.430148729493464</v>
+        <v>4.033695622038209</v>
       </c>
       <c r="D16">
-        <v>4.38726067083038</v>
+        <v>7.746269169429702</v>
       </c>
       <c r="E16">
-        <v>9.851019522087284</v>
+        <v>12.80866242263742</v>
       </c>
       <c r="F16">
-        <v>65.12457744467261</v>
+        <v>46.56732825125148</v>
       </c>
       <c r="G16">
-        <v>98.9991856955518</v>
+        <v>61.89908879863986</v>
       </c>
       <c r="H16">
-        <v>24.67673345649413</v>
+        <v>20.20590394254974</v>
       </c>
       <c r="I16">
-        <v>45.70784838757284</v>
+        <v>32.54402816467346</v>
       </c>
       <c r="J16">
-        <v>7.671578665693573</v>
+        <v>10.10282608747748</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -946,28 +946,28 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>2.410755799026764</v>
+        <v>4.037188354973043</v>
       </c>
       <c r="D17">
-        <v>4.38680716531211</v>
+        <v>7.749482826417786</v>
       </c>
       <c r="E17">
-        <v>9.70473912251998</v>
+        <v>12.8039235813655</v>
       </c>
       <c r="F17">
-        <v>63.49482948989985</v>
+        <v>46.19730219973535</v>
       </c>
       <c r="G17">
-        <v>96.4922444826483</v>
+        <v>61.17326632241945</v>
       </c>
       <c r="H17">
-        <v>24.05565593517113</v>
+        <v>20.10586883792651</v>
       </c>
       <c r="I17">
-        <v>44.54284254977103</v>
+        <v>32.29189684943348</v>
       </c>
       <c r="J17">
-        <v>7.559432349447979</v>
+        <v>10.09977510984827</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -981,28 +981,28 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>2.400193568985797</v>
+        <v>4.039269128900386</v>
       </c>
       <c r="D18">
-        <v>4.386742730734968</v>
+        <v>7.751365074753489</v>
       </c>
       <c r="E18">
-        <v>9.621636543094672</v>
+        <v>12.80147391798407</v>
       </c>
       <c r="F18">
-        <v>62.55550088824053</v>
+        <v>45.98467618138523</v>
       </c>
       <c r="G18">
-        <v>95.04680329044275</v>
+        <v>60.75397454483058</v>
       </c>
       <c r="H18">
-        <v>23.69765508766907</v>
+        <v>20.04872548346197</v>
       </c>
       <c r="I18">
-        <v>43.87081417054622</v>
+        <v>32.14706349118176</v>
       </c>
       <c r="J18">
-        <v>7.49580508170631</v>
+        <v>10.09823483244165</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1016,28 +1016,28 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>2.396714002101681</v>
+        <v>4.039985965060445</v>
       </c>
       <c r="D19">
-        <v>4.386752852583378</v>
+        <v>7.752008188215201</v>
       </c>
       <c r="E19">
-        <v>9.593669204801431</v>
+        <v>12.80069188997181</v>
       </c>
       <c r="F19">
-        <v>62.23704674238226</v>
+        <v>45.91272709304165</v>
       </c>
       <c r="G19">
-        <v>94.55667175173333</v>
+        <v>60.61171286734235</v>
       </c>
       <c r="H19">
-        <v>23.57627826479642</v>
+        <v>20.02944701854534</v>
       </c>
       <c r="I19">
-        <v>43.64288341535983</v>
+        <v>32.09806242153542</v>
       </c>
       <c r="J19">
-        <v>7.474405826134796</v>
+        <v>10.09775015397212</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1051,28 +1051,28 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>2.412757700023669</v>
+        <v>4.036809107536698</v>
       </c>
       <c r="D20">
-        <v>4.386834675113976</v>
+        <v>7.749137226204418</v>
       </c>
       <c r="E20">
-        <v>9.720201981943402</v>
+        <v>12.8043994713039</v>
       </c>
       <c r="F20">
-        <v>63.66850018857507</v>
+        <v>46.23667286139261</v>
       </c>
       <c r="G20">
-        <v>96.75944562739564</v>
+        <v>61.25072317052071</v>
       </c>
       <c r="H20">
-        <v>24.12184317441372</v>
+        <v>20.11647732707277</v>
       </c>
       <c r="I20">
-        <v>44.66704663619338</v>
+        <v>32.31871862397818</v>
       </c>
       <c r="J20">
-        <v>7.571278186694756</v>
+        <v>10.1000776807827</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1086,28 +1086,28 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>2.474153455054864</v>
+        <v>4.026995032819068</v>
       </c>
       <c r="D21">
-        <v>4.389607488690037</v>
+        <v>7.73989512227204</v>
       </c>
       <c r="E21">
-        <v>10.15835601443183</v>
+        <v>12.82015484309045</v>
       </c>
       <c r="F21">
-        <v>68.4615062458183</v>
+        <v>47.32696445070253</v>
       </c>
       <c r="G21">
-        <v>104.1289750096389</v>
+        <v>63.37488382026311</v>
       </c>
       <c r="H21">
-        <v>25.94821330125713</v>
+        <v>20.41347842282201</v>
       </c>
       <c r="I21">
-        <v>48.08970905810618</v>
+        <v>33.06194283953453</v>
       </c>
       <c r="J21">
-        <v>7.907791772983027</v>
+        <v>10.11046259045549</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1121,28 +1121,28 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>2.545500275014277</v>
+        <v>4.021224779697756</v>
       </c>
       <c r="D22">
-        <v>4.393674105071917</v>
+        <v>7.734155135374947</v>
       </c>
       <c r="E22">
-        <v>10.45616199634972</v>
+        <v>12.83291167125691</v>
       </c>
       <c r="F22">
-        <v>71.59893790045832</v>
+        <v>48.03969709016926</v>
       </c>
       <c r="G22">
-        <v>108.9488060233239</v>
+        <v>64.74369508337084</v>
       </c>
       <c r="H22">
-        <v>27.14352846494016</v>
+        <v>20.61073578615554</v>
       </c>
       <c r="I22">
-        <v>50.32538414243655</v>
+        <v>33.54822457537134</v>
       </c>
       <c r="J22">
-        <v>8.163658058849013</v>
+        <v>10.11916348416579</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1156,28 +1156,28 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>2.495275288907544</v>
+        <v>4.024245366627255</v>
       </c>
       <c r="D23">
-        <v>4.391267840536436</v>
+        <v>7.737191250719672</v>
       </c>
       <c r="E23">
-        <v>10.29603818078978</v>
+        <v>12.82587799992593</v>
       </c>
       <c r="F23">
-        <v>69.92270440426981</v>
+        <v>47.65936106480515</v>
       </c>
       <c r="G23">
-        <v>106.3740702237702</v>
+        <v>64.01506375992504</v>
       </c>
       <c r="H23">
-        <v>26.50492116057225</v>
+        <v>20.5051851481821</v>
       </c>
       <c r="I23">
-        <v>49.13135542701895</v>
+        <v>33.28869005859334</v>
       </c>
       <c r="J23">
-        <v>8.01386522806126</v>
+        <v>10.11434443829059</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1191,28 +1191,28 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>2.411850825867108</v>
+        <v>4.03698033873114</v>
       </c>
       <c r="D24">
-        <v>4.386821631483718</v>
+        <v>7.749293364047076</v>
       </c>
       <c r="E24">
-        <v>9.713208142799623</v>
+        <v>12.80418346567879</v>
       </c>
       <c r="F24">
-        <v>63.58999125191266</v>
+        <v>46.21887303381959</v>
       </c>
       <c r="G24">
-        <v>96.63865731556373</v>
+        <v>61.21571114275333</v>
       </c>
       <c r="H24">
-        <v>24.09192292129113</v>
+        <v>20.11168007841102</v>
       </c>
       <c r="I24">
-        <v>44.61090114088198</v>
+        <v>32.30659211250418</v>
       </c>
       <c r="J24">
-        <v>7.565920063537034</v>
+        <v>10.09994022265615</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1226,28 +1226,28 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>2.344089419786611</v>
+        <v>4.053461589684801</v>
       </c>
       <c r="D25">
-        <v>4.389409923912875</v>
+        <v>7.763641839373895</v>
       </c>
       <c r="E25">
-        <v>9.123568296505367</v>
+        <v>12.79132965375957</v>
       </c>
       <c r="F25">
-        <v>56.67906936709961</v>
+        <v>44.67388760418544</v>
       </c>
       <c r="G25">
-        <v>85.9935613982758</v>
+        <v>58.12901065079848</v>
       </c>
       <c r="H25">
-        <v>21.45724853694568</v>
+        <v>19.70249413479836</v>
       </c>
       <c r="I25">
-        <v>39.65584195898867</v>
+        <v>31.25505110455875</v>
       </c>
       <c r="J25">
-        <v>7.11580563921717</v>
+        <v>10.09260199049064</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_241/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_241/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.067937038739814</v>
+        <v>2.308123399506292</v>
       </c>
       <c r="D2">
-        <v>7.775327537238653</v>
+        <v>4.395901607470828</v>
       </c>
       <c r="E2">
-        <v>12.79089778093609</v>
+        <v>8.715424479136983</v>
       </c>
       <c r="F2">
-        <v>43.55292226603628</v>
+        <v>51.4934605274125</v>
       </c>
       <c r="G2">
-        <v>55.81828364157815</v>
+        <v>77.90536560178025</v>
       </c>
       <c r="H2">
-        <v>19.41613829829462</v>
+        <v>19.48376110365571</v>
       </c>
       <c r="I2">
-        <v>30.49359561336957</v>
+        <v>35.87992063714934</v>
       </c>
       <c r="J2">
-        <v>10.09421402311757</v>
+        <v>6.806331376039687</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -456,28 +456,28 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>4.079197275270284</v>
+        <v>2.290525136809214</v>
       </c>
       <c r="D3">
-        <v>7.783950329519477</v>
+        <v>4.40256917151491</v>
       </c>
       <c r="E3">
-        <v>12.7962115933908</v>
+        <v>8.452723501292633</v>
       </c>
       <c r="F3">
-        <v>42.80830285766458</v>
+        <v>48.03355434718442</v>
       </c>
       <c r="G3">
-        <v>54.23993323042035</v>
+        <v>72.23335680188417</v>
       </c>
       <c r="H3">
-        <v>19.23223933023537</v>
+        <v>18.30808815663111</v>
       </c>
       <c r="I3">
-        <v>29.98868480780469</v>
+        <v>33.31565032009387</v>
       </c>
       <c r="J3">
-        <v>10.09965827486539</v>
+        <v>6.6082314520865</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -491,28 +491,28 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>4.086823181783126</v>
+        <v>2.282556462438011</v>
       </c>
       <c r="D4">
-        <v>7.789593014885036</v>
+        <v>4.4076377473587</v>
       </c>
       <c r="E4">
-        <v>12.80222834265474</v>
+        <v>8.297782208123259</v>
       </c>
       <c r="F4">
-        <v>42.36012949402359</v>
+        <v>45.8627482367252</v>
       </c>
       <c r="G4">
-        <v>53.26890903784906</v>
+        <v>68.69293775649231</v>
       </c>
       <c r="H4">
-        <v>19.12460663806862</v>
+        <v>17.57795894462995</v>
       </c>
       <c r="I4">
-        <v>29.68522153962714</v>
+        <v>31.81888175881565</v>
       </c>
       <c r="J4">
-        <v>10.10513802733398</v>
+        <v>6.491872185819596</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,28 +526,28 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>4.090109392622248</v>
+        <v>2.279957180085439</v>
       </c>
       <c r="D5">
-        <v>7.791980221879072</v>
+        <v>4.409930783182051</v>
       </c>
       <c r="E5">
-        <v>12.80537095394674</v>
+        <v>8.236187276299722</v>
       </c>
       <c r="F5">
-        <v>42.18000477163207</v>
+        <v>44.96624417942642</v>
       </c>
       <c r="G5">
-        <v>52.87339574061149</v>
+        <v>67.2241521254813</v>
       </c>
       <c r="H5">
-        <v>19.08211190537824</v>
+        <v>17.27835207241015</v>
       </c>
       <c r="I5">
-        <v>29.56336527187999</v>
+        <v>31.20094266631945</v>
       </c>
       <c r="J5">
-        <v>10.10790694008688</v>
+        <v>6.445728477650868</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -561,28 +561,28 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>4.090665838468226</v>
+        <v>2.279562946284972</v>
       </c>
       <c r="D6">
-        <v>7.792381922476789</v>
+        <v>4.410324827008596</v>
       </c>
       <c r="E6">
-        <v>12.80593444346414</v>
+        <v>8.22605146094558</v>
       </c>
       <c r="F6">
-        <v>42.15025368690453</v>
+        <v>44.8166622432955</v>
       </c>
       <c r="G6">
-        <v>52.80775238547449</v>
+        <v>66.97867291171509</v>
       </c>
       <c r="H6">
-        <v>19.07513927552349</v>
+        <v>17.22847957561441</v>
       </c>
       <c r="I6">
-        <v>29.54324488440706</v>
+        <v>31.09785160925527</v>
       </c>
       <c r="J6">
-        <v>10.10839903397143</v>
+        <v>6.438141926353779</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -596,28 +596,28 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>4.086866778263603</v>
+        <v>2.282518864482194</v>
       </c>
       <c r="D7">
-        <v>7.789624853964197</v>
+        <v>4.407667771697307</v>
       </c>
       <c r="E7">
-        <v>12.80226793078253</v>
+        <v>8.296945323756034</v>
       </c>
       <c r="F7">
-        <v>42.35768979431256</v>
+        <v>45.85070584521977</v>
       </c>
       <c r="G7">
-        <v>53.26357334810401</v>
+        <v>68.67323539928287</v>
       </c>
       <c r="H7">
-        <v>19.12402795819506</v>
+        <v>17.57392665124525</v>
       </c>
       <c r="I7">
-        <v>29.68357061698928</v>
+        <v>31.81058040972624</v>
       </c>
       <c r="J7">
-        <v>10.10517320223398</v>
+        <v>6.491244780833432</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -631,28 +631,28 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>4.071671495189776</v>
+        <v>2.301424859085695</v>
       </c>
       <c r="D8">
-        <v>7.778228512134253</v>
+        <v>4.397986722118134</v>
       </c>
       <c r="E8">
-        <v>12.79215737886159</v>
+        <v>8.623488339827134</v>
       </c>
       <c r="F8">
-        <v>43.29444933871008</v>
+        <v>50.30989328129101</v>
       </c>
       <c r="G8">
-        <v>55.27485639963601</v>
+        <v>75.96854286958856</v>
       </c>
       <c r="H8">
-        <v>19.35165752383276</v>
+        <v>19.08007083848176</v>
       </c>
       <c r="I8">
-        <v>30.31823872306765</v>
+        <v>34.97396813012459</v>
       </c>
       <c r="J8">
-        <v>10.09564683369204</v>
+        <v>6.736896164829223</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -666,28 +666,28 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>4.047544973677834</v>
+        <v>2.364456960077013</v>
       </c>
       <c r="D9">
-        <v>7.758634923494748</v>
+        <v>4.387730002617249</v>
       </c>
       <c r="E9">
-        <v>12.79425332100533</v>
+        <v>9.317755030256812</v>
       </c>
       <c r="F9">
-        <v>45.1923579334902</v>
+        <v>59.02579234656346</v>
       </c>
       <c r="G9">
-        <v>59.17608532848482</v>
+        <v>89.61132843279313</v>
       </c>
       <c r="H9">
-        <v>19.83812848513057</v>
+        <v>22.35212274804468</v>
       </c>
       <c r="I9">
-        <v>31.60769287801838</v>
+        <v>41.34147474667929</v>
       </c>
       <c r="J9">
-        <v>10.09398137337356</v>
+        <v>7.263675654286036</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -701,28 +701,28 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>4.033306825936791</v>
+        <v>2.432445893682871</v>
       </c>
       <c r="D10">
-        <v>7.745907050268944</v>
+        <v>4.387340490539988</v>
       </c>
       <c r="E10">
-        <v>12.80924056609112</v>
+        <v>9.867857641980789</v>
       </c>
       <c r="F10">
-        <v>46.60957261525871</v>
+        <v>65.31034501833965</v>
       </c>
       <c r="G10">
-        <v>61.981652212655</v>
+        <v>99.28487081992617</v>
       </c>
       <c r="H10">
-        <v>20.21737083869697</v>
+        <v>24.74752300462472</v>
       </c>
       <c r="I10">
-        <v>32.57281943039924</v>
+        <v>45.84056723312383</v>
       </c>
       <c r="J10">
-        <v>10.1032033125207</v>
+        <v>7.684499518319972</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -736,28 +736,28 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>4.027593510409064</v>
+        <v>2.46981226389418</v>
       </c>
       <c r="D11">
-        <v>7.740476480735375</v>
+        <v>4.389305614884904</v>
       </c>
       <c r="E11">
-        <v>12.81899056674694</v>
+        <v>10.12933804621771</v>
       </c>
       <c r="F11">
-        <v>47.25628024516151</v>
+        <v>68.15103792113601</v>
       </c>
       <c r="G11">
-        <v>63.23832606388071</v>
+        <v>103.6518622846198</v>
       </c>
       <c r="H11">
-        <v>20.39404390176299</v>
+        <v>25.82992299465002</v>
       </c>
       <c r="I11">
-        <v>33.01373424058502</v>
+        <v>47.86828483659388</v>
       </c>
       <c r="J11">
-        <v>10.1096781573947</v>
+        <v>7.885455473047323</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -771,28 +771,28 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>4.025540408110646</v>
+        <v>2.485079504981581</v>
       </c>
       <c r="D12">
-        <v>7.738471567625717</v>
+        <v>4.390427820365296</v>
       </c>
       <c r="E12">
-        <v>12.82310469558071</v>
+        <v>10.23027982611148</v>
       </c>
       <c r="F12">
-        <v>47.50122072253101</v>
+        <v>69.22722115515384</v>
       </c>
       <c r="G12">
-        <v>63.71089757901819</v>
+        <v>105.3055581717589</v>
       </c>
       <c r="H12">
-        <v>20.4614908354891</v>
+        <v>26.23994949857819</v>
       </c>
       <c r="I12">
-        <v>33.18080441632898</v>
+        <v>48.63566078187792</v>
       </c>
       <c r="J12">
-        <v>10.11245835723054</v>
+        <v>7.963184209542487</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -806,28 +806,28 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>4.025977660591156</v>
+        <v>2.481738117700837</v>
       </c>
       <c r="D13">
-        <v>7.738901072355536</v>
+        <v>4.39016795686423</v>
       </c>
       <c r="E13">
-        <v>12.82219987252577</v>
+        <v>10.20844852775575</v>
       </c>
       <c r="F13">
-        <v>47.4484701162485</v>
+        <v>68.99536559111318</v>
       </c>
       <c r="G13">
-        <v>63.60927505002352</v>
+        <v>104.9493124865458</v>
       </c>
       <c r="H13">
-        <v>20.44694155215289</v>
+        <v>26.15161371359373</v>
       </c>
       <c r="I13">
-        <v>33.14482073616267</v>
+        <v>48.47037117636523</v>
       </c>
       <c r="J13">
-        <v>10.11184498395784</v>
+        <v>7.946366266498041</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -841,28 +841,28 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>4.027422384339081</v>
+        <v>2.47104463112835</v>
       </c>
       <c r="D14">
-        <v>7.740310503551593</v>
+        <v>4.389389880351107</v>
       </c>
       <c r="E14">
-        <v>12.81932057978253</v>
+        <v>10.1376018618087</v>
       </c>
       <c r="F14">
-        <v>47.27643207546961</v>
+        <v>68.23954568335996</v>
       </c>
       <c r="G14">
-        <v>63.27727364430339</v>
+        <v>103.7878799217251</v>
       </c>
       <c r="H14">
-        <v>20.39958218944831</v>
+        <v>25.86364513349481</v>
       </c>
       <c r="I14">
-        <v>33.02747801478515</v>
+        <v>47.931411735179</v>
       </c>
       <c r="J14">
-        <v>10.10990030410755</v>
+        <v>7.891815759274974</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -876,28 +876,28 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>4.028321715129676</v>
+        <v>2.464646645010669</v>
       </c>
       <c r="D15">
-        <v>7.741180526475396</v>
+        <v>4.388964980817256</v>
       </c>
       <c r="E15">
-        <v>12.81761189429881</v>
+        <v>10.09446786429533</v>
       </c>
       <c r="F15">
-        <v>47.17105279049238</v>
+        <v>67.77675312803555</v>
       </c>
       <c r="G15">
-        <v>63.07346929284409</v>
+        <v>103.0766375201299</v>
       </c>
       <c r="H15">
-        <v>20.37064257097947</v>
+        <v>25.68731625842431</v>
       </c>
       <c r="I15">
-        <v>32.95561114459593</v>
+        <v>47.60129882798025</v>
       </c>
       <c r="J15">
-        <v>10.10875189896313</v>
+        <v>7.858623670535361</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -911,28 +911,28 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>4.033695622038209</v>
+        <v>2.430148729493465</v>
       </c>
       <c r="D16">
-        <v>7.746269169429702</v>
+        <v>4.387260670830511</v>
       </c>
       <c r="E16">
-        <v>12.80866242263742</v>
+        <v>9.851019522087308</v>
       </c>
       <c r="F16">
-        <v>46.56732825125148</v>
+        <v>65.12457744467255</v>
       </c>
       <c r="G16">
-        <v>61.89908879863986</v>
+        <v>98.99918569555174</v>
       </c>
       <c r="H16">
-        <v>20.20590394254974</v>
+        <v>24.6767334564941</v>
       </c>
       <c r="I16">
-        <v>32.54402816467346</v>
+        <v>45.7078483875728</v>
       </c>
       <c r="J16">
-        <v>10.10282608747748</v>
+        <v>7.671578665693576</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -946,28 +946,28 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>4.037188354973043</v>
+        <v>2.410755799026868</v>
       </c>
       <c r="D17">
-        <v>7.749482826417786</v>
+        <v>4.386807165311915</v>
       </c>
       <c r="E17">
-        <v>12.8039235813655</v>
+        <v>9.704739122520005</v>
       </c>
       <c r="F17">
-        <v>46.19730219973535</v>
+        <v>63.49482948989979</v>
       </c>
       <c r="G17">
-        <v>61.17326632241945</v>
+        <v>96.49224448264818</v>
       </c>
       <c r="H17">
-        <v>20.10586883792651</v>
+        <v>24.05565593517109</v>
       </c>
       <c r="I17">
-        <v>32.29189684943348</v>
+        <v>44.542842549771</v>
       </c>
       <c r="J17">
-        <v>10.09977510984827</v>
+        <v>7.559432349448008</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -981,28 +981,28 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>4.039269128900386</v>
+        <v>2.400193568985829</v>
       </c>
       <c r="D18">
-        <v>7.751365074753489</v>
+        <v>4.386742730734904</v>
       </c>
       <c r="E18">
-        <v>12.80147391798407</v>
+        <v>9.62163654309466</v>
       </c>
       <c r="F18">
-        <v>45.98467618138523</v>
+        <v>62.55550088824081</v>
       </c>
       <c r="G18">
-        <v>60.75397454483058</v>
+        <v>95.04680329044312</v>
       </c>
       <c r="H18">
-        <v>20.04872548346197</v>
+        <v>23.69765508766915</v>
       </c>
       <c r="I18">
-        <v>32.14706349118176</v>
+        <v>43.87081417054641</v>
       </c>
       <c r="J18">
-        <v>10.09823483244165</v>
+        <v>7.495805081706328</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1016,28 +1016,28 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>4.039985965060445</v>
+        <v>2.396714002101587</v>
       </c>
       <c r="D19">
-        <v>7.752008188215201</v>
+        <v>4.38675285258338</v>
       </c>
       <c r="E19">
-        <v>12.80069188997181</v>
+        <v>9.593669204801447</v>
       </c>
       <c r="F19">
-        <v>45.91272709304165</v>
+        <v>62.23704674238248</v>
       </c>
       <c r="G19">
-        <v>60.61171286734235</v>
+        <v>94.55667175173367</v>
       </c>
       <c r="H19">
-        <v>20.02944701854534</v>
+        <v>23.57627826479653</v>
       </c>
       <c r="I19">
-        <v>32.09806242153542</v>
+        <v>43.64288341535999</v>
       </c>
       <c r="J19">
-        <v>10.09775015397212</v>
+        <v>7.474405826134803</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1051,28 +1051,28 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>4.036809107536698</v>
+        <v>2.41275770002376</v>
       </c>
       <c r="D20">
-        <v>7.749137226204418</v>
+        <v>4.386834675114041</v>
       </c>
       <c r="E20">
-        <v>12.8043994713039</v>
+        <v>9.720201981943402</v>
       </c>
       <c r="F20">
-        <v>46.23667286139261</v>
+        <v>63.66850018857504</v>
       </c>
       <c r="G20">
-        <v>61.25072317052071</v>
+        <v>96.75944562739551</v>
       </c>
       <c r="H20">
-        <v>20.11647732707277</v>
+        <v>24.12184317441369</v>
       </c>
       <c r="I20">
-        <v>32.31871862397818</v>
+        <v>44.66704663619337</v>
       </c>
       <c r="J20">
-        <v>10.1000776807827</v>
+        <v>7.571278186694751</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1086,28 +1086,28 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>4.026995032819068</v>
+        <v>2.474153455054955</v>
       </c>
       <c r="D21">
-        <v>7.73989512227204</v>
+        <v>4.389607488690029</v>
       </c>
       <c r="E21">
-        <v>12.82015484309045</v>
+        <v>10.15835601443181</v>
       </c>
       <c r="F21">
-        <v>47.32696445070253</v>
+        <v>68.46150624581816</v>
       </c>
       <c r="G21">
-        <v>63.37488382026311</v>
+        <v>104.1289750096388</v>
       </c>
       <c r="H21">
-        <v>20.41347842282201</v>
+        <v>25.94821330125712</v>
       </c>
       <c r="I21">
-        <v>33.06194283953453</v>
+        <v>48.08970905810613</v>
       </c>
       <c r="J21">
-        <v>10.11046259045549</v>
+        <v>7.907791772983022</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1121,28 +1121,28 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>4.021224779697756</v>
+        <v>2.54550027501425</v>
       </c>
       <c r="D22">
-        <v>7.734155135374947</v>
+        <v>4.393674105071717</v>
       </c>
       <c r="E22">
-        <v>12.83291167125691</v>
+        <v>10.45616199634967</v>
       </c>
       <c r="F22">
-        <v>48.03969709016926</v>
+        <v>71.59893790045849</v>
       </c>
       <c r="G22">
-        <v>64.74369508337084</v>
+        <v>108.9488060233241</v>
       </c>
       <c r="H22">
-        <v>20.61073578615554</v>
+        <v>27.1435284649402</v>
       </c>
       <c r="I22">
-        <v>33.54822457537134</v>
+        <v>50.32538414243668</v>
       </c>
       <c r="J22">
-        <v>10.11916348416579</v>
+        <v>8.163658058848961</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1156,28 +1156,28 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>4.024245366627255</v>
+        <v>2.495275288907535</v>
       </c>
       <c r="D23">
-        <v>7.737191250719672</v>
+        <v>4.391267840536632</v>
       </c>
       <c r="E23">
-        <v>12.82587799992593</v>
+        <v>10.29603818078977</v>
       </c>
       <c r="F23">
-        <v>47.65936106480515</v>
+        <v>69.92270440426989</v>
       </c>
       <c r="G23">
-        <v>64.01506375992504</v>
+        <v>106.3740702237703</v>
       </c>
       <c r="H23">
-        <v>20.5051851481821</v>
+        <v>26.50492116057228</v>
       </c>
       <c r="I23">
-        <v>33.28869005859334</v>
+        <v>49.131355427019</v>
       </c>
       <c r="J23">
-        <v>10.11434443829059</v>
+        <v>8.013865228061238</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1191,28 +1191,28 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>4.03698033873114</v>
+        <v>2.41185082586718</v>
       </c>
       <c r="D24">
-        <v>7.749293364047076</v>
+        <v>4.386821631483589</v>
       </c>
       <c r="E24">
-        <v>12.80418346567879</v>
+        <v>9.713208142799626</v>
       </c>
       <c r="F24">
-        <v>46.21887303381959</v>
+        <v>63.58999125191254</v>
       </c>
       <c r="G24">
-        <v>61.21571114275333</v>
+        <v>96.63865731556338</v>
       </c>
       <c r="H24">
-        <v>20.11168007841102</v>
+        <v>24.09192292129104</v>
       </c>
       <c r="I24">
-        <v>32.30659211250418</v>
+        <v>44.61090114088188</v>
       </c>
       <c r="J24">
-        <v>10.09994022265615</v>
+        <v>7.565920063537029</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1226,28 +1226,28 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>4.053461589684801</v>
+        <v>2.34408941978652</v>
       </c>
       <c r="D25">
-        <v>7.763641839373895</v>
+        <v>4.389409923912944</v>
       </c>
       <c r="E25">
-        <v>12.79132965375957</v>
+        <v>9.123568296505379</v>
       </c>
       <c r="F25">
-        <v>44.67388760418544</v>
+        <v>56.67906936709954</v>
       </c>
       <c r="G25">
-        <v>58.12901065079848</v>
+        <v>85.99356139827573</v>
       </c>
       <c r="H25">
-        <v>19.70249413479836</v>
+        <v>21.45724853694563</v>
       </c>
       <c r="I25">
-        <v>31.25505110455875</v>
+        <v>39.6558419589886</v>
       </c>
       <c r="J25">
-        <v>10.09260199049064</v>
+        <v>7.115805639217185</v>
       </c>
       <c r="L25">
         <v>0</v>
